--- a/temp/pages/StructureDefinition-onc-goal-evaluation.xlsx
+++ b/temp/pages/StructureDefinition-onc-goal-evaluation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T00:15:25+00:00</t>
+    <t>2025-11-28T01:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-onc-goal-evaluation.xlsx
+++ b/temp/pages/StructureDefinition-onc-goal-evaluation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:24:36+00:00</t>
+    <t>2025-12-26T14:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Evaluation of patient goal outcomes and nursing intervention effectiveness. Assesses whether goals have been met, partially met, or not met. Part of the ADPIE framework's Evaluation phase.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -466,6 +469,9 @@
     <t>Observation Goal Reference</t>
   </si>
   <si>
+    <t>Extension to link goal evaluation observations to the patient goals being evaluated. Enables tracking of goal progress and outcomes over time.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -643,7 +649,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:coding.code}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -659,10 +665,503 @@
     <t>nursing</t>
   </si>
   <si>
-    <t>Observation.category:nursing.id</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="survey"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Location|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
+  </si>
+  <si>
+    <t>value.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+  </si>
+  <si>
+    <t>OBX-17</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>Observation.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Specimen used for this observation</t>
+  </si>
+  <si>
+    <t>The specimen that was used when this observation was made.</t>
+  </si>
+  <si>
+    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>&lt; 123038009 |Specimen|</t>
+  </si>
+  <si>
+    <t>SPM segment</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
+    <t>704319004 |Inherent in|</t>
+  </si>
+  <si>
+    <t>Observation.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>(Measurement) Device</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
+  </si>
+  <si>
+    <t>&lt; 49062001 |Device|</t>
+  </si>
+  <si>
+    <t>OBX-17 / PRT -10</t>
+  </si>
+  <si>
+    <t>participation[typeCode=DEV]</t>
+  </si>
+  <si>
+    <t>424226004 |Using device|</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+  </si>
+  <si>
+    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
+  </si>
+  <si>
+    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+  </si>
+  <si>
+    <t>OBX.7</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -681,10 +1180,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.category:nursing.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
+    <t>Observation.referenceRange.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -693,707 +1189,7 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding</t>
-  </si>
-  <si>
-    <t>Observation.category.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.text</t>
-  </si>
-  <si>
-    <t>Observation.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Location|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
-  </si>
-  <si>
-    <t>value.nullFlavor</t>
-  </si>
-  <si>
-    <t>Observation.interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal Flag
-</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
-  </si>
-  <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.method</t>
-  </si>
-  <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
-  </si>
-  <si>
-    <t>OBX-17</t>
-  </si>
-  <si>
-    <t>methodCode</t>
-  </si>
-  <si>
-    <t>Observation.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
-    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
-  </si>
-  <si>
-    <t>&lt; 123038009 |Specimen|</t>
-  </si>
-  <si>
-    <t>SPM segment</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SPC].specimen</t>
-  </si>
-  <si>
-    <t>704319004 |Inherent in|</t>
-  </si>
-  <si>
-    <t>Observation.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
-  </si>
-  <si>
-    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
-  </si>
-  <si>
-    <t>&lt; 49062001 |Device|</t>
-  </si>
-  <si>
-    <t>OBX-17 / PRT -10</t>
-  </si>
-  <si>
-    <t>participation[typeCode=DEV]</t>
-  </si>
-  <si>
-    <t>424226004 |Using device|</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
-  </si>
-  <si>
-    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
-  </si>
-  <si>
-    <t>OBX.7</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1903,66 +1699,68 @@
       <c r="A11" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +1770,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1981,7 +1779,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.10546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2008,8 +1806,8 @@
     <col min="25" max="25" width="54.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.7890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.80859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2026,149 +1824,149 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>17</v>
@@ -2180,16 +1978,16 @@
         <v>17</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2239,31 +2037,31 @@
         <v>17</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>17</v>
@@ -2274,10 +2072,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2285,10 +2083,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>17</v>
@@ -2297,19 +2095,19 @@
         <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2359,13 +2157,13 @@
         <v>17</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>17</v>
@@ -2394,10 +2192,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2405,10 +2203,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>17</v>
@@ -2417,16 +2215,16 @@
         <v>17</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2477,19 +2275,19 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>17</v>
@@ -2512,10 +2310,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2523,31 +2321,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2597,19 +2395,19 @@
         <v>17</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>17</v>
@@ -2632,10 +2430,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2643,10 +2441,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>17</v>
@@ -2658,16 +2456,16 @@
         <v>17</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2693,13 +2491,13 @@
         <v>17</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>17</v>
@@ -2717,19 +2515,19 @@
         <v>17</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>17</v>
@@ -2752,21 +2550,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>17</v>
@@ -2778,16 +2576,16 @@
         <v>17</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2837,19 +2635,19 @@
         <v>17</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>17</v>
@@ -2861,7 +2659,7 @@
         <v>17</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>17</v>
@@ -2872,21 +2670,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>17</v>
@@ -2898,16 +2696,16 @@
         <v>17</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2957,13 +2755,13 @@
         <v>17</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>17</v>
@@ -2981,7 +2779,7 @@
         <v>17</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>17</v>
@@ -2992,10 +2790,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3003,10 +2801,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>17</v>
@@ -3018,13 +2816,13 @@
         <v>17</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3063,29 +2861,29 @@
         <v>17</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>17</v>
@@ -3108,26 +2906,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>17</v>
@@ -3136,13 +2934,13 @@
         <v>17</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3193,19 +2991,19 @@
         <v>17</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>17</v>
@@ -3228,45 +3026,45 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>17</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>17</v>
@@ -3315,19 +3113,19 @@
         <v>17</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>17</v>
@@ -3339,7 +3137,7 @@
         <v>17</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>17</v>
@@ -3350,10 +3148,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3361,10 +3159,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>17</v>
@@ -3373,20 +3171,20 @@
         <v>17</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>17</v>
@@ -3435,34 +3233,34 @@
         <v>17</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>17</v>
@@ -3470,21 +3268,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>17</v>
@@ -3493,20 +3291,20 @@
         <v>17</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>17</v>
@@ -3555,31 +3353,31 @@
         <v>17</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>17</v>
@@ -3590,21 +3388,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>17</v>
@@ -3613,19 +3411,19 @@
         <v>17</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3675,31 +3473,31 @@
         <v>17</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>17</v>
@@ -3710,10 +3508,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3721,34 +3519,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>17</v>
@@ -3773,13 +3571,13 @@
         <v>17</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>17</v>
@@ -3797,34 +3595,34 @@
         <v>17</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>17</v>
@@ -3832,10 +3630,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3843,10 +3641,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>17</v>
@@ -3858,19 +3656,19 @@
         <v>17</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>17</v>
@@ -3895,41 +3693,41 @@
         <v>17</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>17</v>
@@ -3941,10 +3739,10 @@
         <v>17</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>17</v>
@@ -3952,26 +3750,26 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
@@ -3980,19 +3778,19 @@
         <v>17</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>17</v>
@@ -4002,7 +3800,7 @@
         <v>17</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>17</v>
@@ -4017,13 +3815,13 @@
         <v>17</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>17</v>
@@ -4041,19 +3839,19 @@
         <v>17</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>17</v>
@@ -4065,10 +3863,10 @@
         <v>17</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>17</v>
@@ -4076,21 +3874,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>17</v>
@@ -4099,19 +3897,23 @@
         <v>17</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>17</v>
       </c>
@@ -4135,13 +3937,11 @@
         <v>17</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>17</v>
@@ -4159,56 +3959,56 @@
         <v>17</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>17</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>17</v>
@@ -4217,21 +4017,23 @@
         <v>17</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>17</v>
       </c>
@@ -4267,46 +4069,46 @@
         <v>17</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>17</v>
@@ -4314,10 +4116,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4325,10 +4127,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>17</v>
@@ -4337,23 +4139,21 @@
         <v>17</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>17</v>
       </c>
@@ -4401,19 +4201,19 @@
         <v>17</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>17</v>
@@ -4422,13 +4222,13 @@
         <v>17</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>17</v>
@@ -4436,21 +4236,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>17</v>
@@ -4459,19 +4259,23 @@
         <v>17</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>17</v>
       </c>
@@ -4519,34 +4323,34 @@
         <v>17</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>17</v>
@@ -4554,21 +4358,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>17</v>
@@ -4577,21 +4381,23 @@
         <v>17</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>17</v>
       </c>
@@ -4627,46 +4433,46 @@
         <v>17</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>17</v>
@@ -4674,10 +4480,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4685,10 +4491,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>17</v>
@@ -4697,23 +4503,21 @@
         <v>17</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>17</v>
       </c>
@@ -4722,7 +4526,7 @@
         <v>17</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>17</v>
@@ -4761,19 +4565,19 @@
         <v>17</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>17</v>
@@ -4782,24 +4586,24 @@
         <v>17</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4807,33 +4611,33 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>17</v>
       </c>
@@ -4881,45 +4685,45 @@
         <v>17</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>17</v>
+        <v>275</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4927,32 +4731,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>17</v>
@@ -4962,7 +4768,7 @@
         <v>17</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>17</v>
@@ -5001,45 +4807,45 @@
         <v>17</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>17</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5047,10 +4853,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>17</v>
@@ -5059,20 +4865,22 @@
         <v>17</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>17</v>
@@ -5097,13 +4905,13 @@
         <v>17</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>17</v>
@@ -5121,19 +4929,19 @@
         <v>17</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>17</v>
@@ -5142,10 +4950,10 @@
         <v>17</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>17</v>
@@ -5156,21 +4964,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>17</v>
@@ -5179,22 +4987,22 @@
         <v>17</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>17</v>
@@ -5219,13 +5027,13 @@
         <v>17</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>17</v>
+        <v>304</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>17</v>
@@ -5243,45 +5051,45 @@
         <v>17</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>17</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5289,10 +5097,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>17</v>
@@ -5301,22 +5109,22 @@
         <v>17</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>17</v>
@@ -5365,19 +5173,19 @@
         <v>17</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>17</v>
@@ -5386,10 +5194,10 @@
         <v>17</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>17</v>
@@ -5400,21 +5208,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>17</v>
@@ -5423,23 +5231,21 @@
         <v>17</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>17</v>
       </c>
@@ -5463,11 +5269,13 @@
         <v>17</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>17</v>
@@ -5485,45 +5293,45 @@
         <v>17</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>296</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5531,10 +5339,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>17</v>
@@ -5543,22 +5351,22 @@
         <v>17</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>17</v>
@@ -5583,13 +5391,13 @@
         <v>17</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>17</v>
+        <v>321</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>17</v>
+        <v>333</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>17</v>
+        <v>334</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>17</v>
@@ -5607,34 +5415,34 @@
         <v>17</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>307</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>17</v>
@@ -5642,10 +5450,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5653,10 +5461,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>17</v>
@@ -5665,19 +5473,19 @@
         <v>17</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5727,56 +5535,56 @@
         <v>17</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>307</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>17</v>
@@ -5785,23 +5593,21 @@
         <v>17</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>17</v>
       </c>
@@ -5849,56 +5655,56 @@
         <v>17</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>17</v>
+        <v>351</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>326</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>17</v>
@@ -5907,22 +5713,22 @@
         <v>17</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>17</v>
@@ -5971,34 +5777,34 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>335</v>
+        <v>17</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>17</v>
@@ -6006,10 +5812,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6017,10 +5823,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>17</v>
@@ -6029,20 +5835,18 @@
         <v>17</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>17</v>
@@ -6091,19 +5895,19 @@
         <v>17</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>17</v>
@@ -6112,58 +5916,58 @@
         <v>17</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>341</v>
+        <v>17</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>345</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>17</v>
       </c>
@@ -6211,80 +6015,80 @@
         <v>17</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>349</v>
+        <v>17</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>352</v>
+        <v>17</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>17</v>
+        <v>375</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>354</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>17</v>
@@ -6333,45 +6137,45 @@
         <v>17</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>359</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>360</v>
+        <v>17</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>361</v>
+        <v>17</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>363</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6379,10 +6183,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>17</v>
@@ -6394,20 +6198,16 @@
         <v>17</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>17</v>
       </c>
@@ -6431,13 +6231,13 @@
         <v>17</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>369</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>370</v>
+        <v>17</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>17</v>
@@ -6455,19 +6255,19 @@
         <v>17</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>17</v>
@@ -6476,10 +6276,10 @@
         <v>17</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>17</v>
@@ -6490,21 +6290,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>375</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>17</v>
@@ -6516,20 +6316,16 @@
         <v>17</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>193</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>17</v>
       </c>
@@ -6553,13 +6349,13 @@
         <v>17</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>369</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>380</v>
+        <v>17</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>17</v>
@@ -6577,45 +6373,45 @@
         <v>17</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>17</v>
+        <v>383</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>382</v>
+        <v>17</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>385</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6623,10 +6419,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>17</v>
@@ -6638,19 +6434,19 @@
         <v>17</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>17</v>
@@ -6675,13 +6471,13 @@
         <v>17</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>17</v>
+        <v>395</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>17</v>
@@ -6699,31 +6495,31 @@
         <v>17</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>17</v>
+        <v>397</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>17</v>
@@ -6734,10 +6530,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6745,10 +6541,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>17</v>
@@ -6760,18 +6556,20 @@
         <v>17</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>17</v>
       </c>
@@ -6795,69 +6593,69 @@
         <v>17</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="AN40" t="s" s="2">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>404</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6865,10 +6663,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>17</v>
@@ -6880,19 +6678,17 @@
         <v>17</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>17</v>
@@ -6917,55 +6713,55 @@
         <v>17</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>398</v>
+        <v>17</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>410</v>
+        <v>17</v>
       </c>
       <c r="Z41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>17</v>
@@ -6976,10 +6772,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6987,10 +6783,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>17</v>
@@ -7002,17 +6798,15 @@
         <v>17</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>17</v>
@@ -7061,45 +6855,45 @@
         <v>17</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>419</v>
+        <v>17</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>422</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7107,10 +6901,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>17</v>
@@ -7119,19 +6913,19 @@
         <v>17</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7181,45 +6975,45 @@
         <v>17</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>428</v>
+        <v>17</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>431</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7227,10 +7021,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>17</v>
@@ -7239,23 +7033,21 @@
         <v>17</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>17</v>
       </c>
@@ -7303,19 +7095,19 @@
         <v>17</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>438</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>17</v>
@@ -7324,10 +7116,10 @@
         <v>17</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>17</v>
@@ -7338,10 +7130,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7349,10 +7141,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>17</v>
@@ -7361,19 +7153,23 @@
         <v>17</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>207</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>208</v>
+        <v>430</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>17</v>
       </c>
@@ -7421,19 +7217,19 @@
         <v>17</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>210</v>
+        <v>429</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>17</v>
@@ -7442,10 +7238,10 @@
         <v>17</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>17</v>
+        <v>434</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>211</v>
+        <v>435</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>17</v>
@@ -7456,21 +7252,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>17</v>
@@ -7482,17 +7278,15 @@
         <v>17</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>17</v>
@@ -7541,19 +7335,19 @@
         <v>17</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>17</v>
@@ -7565,7 +7359,7 @@
         <v>17</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>211</v>
+        <v>369</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>17</v>
@@ -7576,46 +7370,44 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>444</v>
+        <v>148</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>17</v>
       </c>
@@ -7663,19 +7455,19 @@
         <v>17</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>17</v>
@@ -7687,7 +7479,7 @@
         <v>17</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>17</v>
@@ -7698,42 +7490,46 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>17</v>
+        <v>375</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>449</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>17</v>
       </c>
@@ -7781,19 +7577,19 @@
         <v>17</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>452</v>
+        <v>17</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>17</v>
@@ -7802,10 +7598,10 @@
         <v>17</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>453</v>
+        <v>17</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>454</v>
+        <v>132</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>17</v>
@@ -7816,10 +7612,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7827,10 +7623,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>17</v>
@@ -7839,19 +7635,23 @@
         <v>17</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>449</v>
+        <v>195</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>17</v>
       </c>
@@ -7875,13 +7675,13 @@
         <v>17</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>17</v>
+        <v>321</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>17</v>
+        <v>443</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>17</v>
+        <v>444</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>17</v>
@@ -7899,34 +7699,34 @@
         <v>17</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>452</v>
+        <v>17</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>17</v>
+        <v>445</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>458</v>
+        <v>218</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>17</v>
@@ -7934,10 +7734,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7945,10 +7745,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>17</v>
@@ -7957,22 +7757,22 @@
         <v>17</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>193</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>461</v>
+        <v>279</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>17</v>
@@ -7997,13 +7797,13 @@
         <v>17</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>464</v>
+        <v>17</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>465</v>
+        <v>17</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>17</v>
@@ -8021,45 +7821,45 @@
         <v>17</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>467</v>
+        <v>284</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>17</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8067,10 +7867,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>17</v>
@@ -8082,19 +7882,19 @@
         <v>17</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>472</v>
+        <v>291</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>17</v>
@@ -8119,13 +7919,13 @@
         <v>17</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>398</v>
+        <v>292</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>473</v>
+        <v>293</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>474</v>
+        <v>294</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>17</v>
@@ -8143,31 +7943,31 @@
         <v>17</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>466</v>
+        <v>17</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>467</v>
+        <v>132</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>17</v>
@@ -8178,21 +7978,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>17</v>
@@ -8204,17 +8004,19 @@
         <v>17</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>476</v>
+        <v>195</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>477</v>
+        <v>299</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>479</v>
+        <v>302</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>17</v>
@@ -8239,13 +8041,13 @@
         <v>17</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>17</v>
+        <v>304</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>17</v>
@@ -8263,45 +8065,45 @@
         <v>17</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>480</v>
+        <v>307</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>17</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8309,10 +8111,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>17</v>
@@ -8324,16 +8126,20 @@
         <v>17</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>17</v>
       </c>
@@ -8381,19 +8187,19 @@
         <v>17</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>17</v>
@@ -8402,1352 +8208,20 @@
         <v>17</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>484</v>
+        <v>363</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP64" t="s" s="2">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP64">
+  <autoFilter ref="A1:AP53">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9757,7 +8231,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-onc-goal-evaluation.xlsx
+++ b/temp/pages/StructureDefinition-onc-goal-evaluation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:13:58+00:00</t>
+    <t>2025-12-26T15:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -890,7 +890,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConcept</t>
+CodeableConceptstring</t>
   </si>
   <si>
     <t>Actual result</t>

--- a/temp/pages/StructureDefinition-onc-goal-evaluation.xlsx
+++ b/temp/pages/StructureDefinition-onc-goal-evaluation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="455">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Goal Evaluation</t>
+    <t>ONC Goal Evaluation</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:22:58+00:00</t>
+    <t>2026-01-01T13:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Evaluation of patient goal outcomes and nursing intervention effectiveness. Assesses whether goals have been met, partially met, or not met. Part of the ADPIE framework's Evaluation phase.</t>
+    <t>Explicit evaluation of whether a nursing goal was achieved, closing the ADPIE loop.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-nursing-assessment</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -469,7 +469,7 @@
     <t>Observation Goal Reference</t>
   </si>
   <si>
-    <t>Extension to link goal evaluation observations to the patient goals being evaluated. Enables tracking of goal progress and outcomes over time.</t>
+    <t>Extension to link goal evaluation observations to the patient goals being evaluated.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -649,77 +649,74 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing</t>
-  </si>
-  <si>
-    <t>nursing</t>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="survey"/&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="390906007"/&gt;
+    &lt;display value="Follow-up assessment"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Location|4.0.1)
-</t>
-  </si>
-  <si>
     <t>Who and/or what the observation is about</t>
   </si>
   <si>
@@ -747,7 +744,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-nursing-goal)
 </t>
   </si>
   <si>
@@ -861,7 +858,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -889,10 +886,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstring</t>
-  </si>
-  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -903,6 +896,9 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1026,9 +1022,6 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1354,7 +1347,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation)
 </t>
   </si>
   <si>
@@ -1410,12 +1403,6 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1770,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2801,7 +2788,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2919,7 +2906,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>89</v>
@@ -3506,7 +3493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>181</v>
       </c>
@@ -3525,7 +3512,7 @@
         <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>90</v>
@@ -3641,7 +3628,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -3705,14 +3692,16 @@
         <v>17</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>194</v>
@@ -3739,27 +3728,25 @@
         <v>17</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AP16" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="B17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3769,28 +3756,28 @@
         <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>17</v>
@@ -3800,7 +3787,7 @@
         <v>17</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>17</v>
@@ -3815,13 +3802,13 @@
         <v>17</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>17</v>
@@ -3839,13 +3826,13 @@
         <v>17</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>17</v>
@@ -3854,38 +3841,38 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>17</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -3900,19 +3887,19 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>17</v>
@@ -3937,11 +3924,13 @@
         <v>17</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>17</v>
@@ -3959,10 +3948,10 @@
         <v>17</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>89</v>
@@ -3974,30 +3963,30 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>220</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4005,13 +3994,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>17</v>
@@ -4020,20 +4009,18 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>17</v>
       </c>
@@ -4081,13 +4068,13 @@
         <v>17</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>17</v>
@@ -4096,19 +4083,19 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>17</v>
@@ -4116,21 +4103,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>17</v>
@@ -4142,18 +4129,20 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>17</v>
       </c>
@@ -4201,13 +4190,13 @@
         <v>17</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>17</v>
@@ -4216,19 +4205,19 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>17</v>
@@ -4236,14 +4225,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4262,19 +4251,19 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>17</v>
@@ -4323,7 +4312,7 @@
         <v>17</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4338,19 +4327,19 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>17</v>
@@ -4358,14 +4347,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4384,20 +4373,18 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>17</v>
       </c>
@@ -4445,7 +4432,7 @@
         <v>17</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4460,19 +4447,19 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>17</v>
@@ -4480,10 +4467,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4494,7 +4481,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>17</v>
@@ -4506,18 +4493,18 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>17</v>
       </c>
@@ -4565,13 +4552,13 @@
         <v>17</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>17</v>
@@ -4580,30 +4567,30 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4611,13 +4598,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -4626,17 +4613,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>17</v>
@@ -4661,13 +4650,11 @@
         <v>17</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>17</v>
@@ -4685,45 +4672,45 @@
         <v>17</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>17</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4731,34 +4718,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>17</v>
@@ -4783,13 +4770,13 @@
         <v>17</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>17</v>
@@ -4807,7 +4794,7 @@
         <v>17</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4816,7 +4803,7 @@
         <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>101</v>
@@ -4825,38 +4812,38 @@
         <v>17</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>286</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>17</v>
+        <v>297</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>17</v>
@@ -4871,16 +4858,16 @@
         <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>17</v>
@@ -4905,13 +4892,13 @@
         <v>17</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>17</v>
@@ -4929,16 +4916,16 @@
         <v>17</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>101</v>
@@ -4947,41 +4934,41 @@
         <v>17</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>17</v>
+        <v>304</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>17</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>17</v>
@@ -4990,19 +4977,19 @@
         <v>17</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>17</v>
@@ -5027,13 +5014,13 @@
         <v>17</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>303</v>
+        <v>17</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>17</v>
@@ -5051,7 +5038,7 @@
         <v>17</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5069,27 +5056,27 @@
         <v>17</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>308</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5100,7 +5087,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>17</v>
@@ -5112,20 +5099,18 @@
         <v>17</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>17</v>
       </c>
@@ -5149,13 +5134,13 @@
         <v>17</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>17</v>
+        <v>321</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>17</v>
@@ -5173,13 +5158,13 @@
         <v>17</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>17</v>
@@ -5191,27 +5176,27 @@
         <v>17</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>17</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5237,15 +5222,17 @@
         <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>17</v>
       </c>
@@ -5269,13 +5256,13 @@
         <v>17</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>17</v>
@@ -5293,7 +5280,7 @@
         <v>17</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5311,27 +5298,27 @@
         <v>17</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>327</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5354,20 +5341,18 @@
         <v>17</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>17</v>
       </c>
@@ -5391,13 +5376,13 @@
         <v>17</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>333</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>334</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>17</v>
@@ -5415,7 +5400,7 @@
         <v>17</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5433,27 +5418,27 @@
         <v>17</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>17</v>
+        <v>340</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>17</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5476,16 +5461,16 @@
         <v>17</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5535,7 +5520,7 @@
         <v>17</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5553,27 +5538,27 @@
         <v>17</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5584,7 +5569,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>17</v>
@@ -5596,18 +5581,20 @@
         <v>17</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>17</v>
       </c>
@@ -5655,45 +5642,45 @@
         <v>17</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>359</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>354</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5704,7 +5691,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>17</v>
@@ -5716,20 +5703,16 @@
         <v>17</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>17</v>
       </c>
@@ -5777,19 +5760,19 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>361</v>
+        <v>17</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>17</v>
@@ -5798,10 +5781,10 @@
         <v>17</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>362</v>
+        <v>17</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>17</v>
@@ -5812,21 +5795,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>17</v>
@@ -5838,15 +5821,17 @@
         <v>17</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>365</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>17</v>
@@ -5895,19 +5880,19 @@
         <v>17</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>17</v>
@@ -5919,7 +5904,7 @@
         <v>17</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>17</v>
@@ -5930,14 +5915,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>148</v>
+        <v>373</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5950,24 +5935,26 @@
         <v>17</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>17</v>
       </c>
@@ -6015,7 +6002,7 @@
         <v>17</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6039,7 +6026,7 @@
         <v>17</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>369</v>
+        <v>132</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>17</v>
@@ -6050,46 +6037,42 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>375</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>378</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>17</v>
       </c>
@@ -6137,19 +6120,19 @@
         <v>17</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>17</v>
@@ -6158,10 +6141,10 @@
         <v>17</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>132</v>
+        <v>383</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>17</v>
@@ -6172,10 +6155,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6198,13 +6181,13 @@
         <v>17</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6255,7 +6238,7 @@
         <v>17</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6264,7 +6247,7 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
@@ -6276,10 +6259,10 @@
         <v>17</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>17</v>
@@ -6290,10 +6273,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6316,16 +6299,20 @@
         <v>17</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>17</v>
       </c>
@@ -6349,13 +6336,13 @@
         <v>17</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>17</v>
+        <v>393</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>17</v>
@@ -6373,7 +6360,7 @@
         <v>17</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6382,7 +6369,7 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>383</v>
+        <v>17</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -6391,13 +6378,13 @@
         <v>17</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>17</v>
+        <v>395</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>17</v>
@@ -6408,10 +6395,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6422,7 +6409,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>17</v>
@@ -6437,16 +6424,16 @@
         <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>17</v>
@@ -6471,13 +6458,13 @@
         <v>17</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>17</v>
@@ -6495,13 +6482,13 @@
         <v>17</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>17</v>
@@ -6513,13 +6500,13 @@
         <v>17</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>17</v>
@@ -6530,10 +6517,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6544,7 +6531,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>17</v>
@@ -6556,19 +6543,17 @@
         <v>17</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>195</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>17</v>
@@ -6593,37 +6578,37 @@
         <v>17</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>17</v>
@@ -6635,13 +6620,13 @@
         <v>17</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>397</v>
+        <v>17</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>398</v>
+        <v>17</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>17</v>
@@ -6652,10 +6637,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6678,18 +6663,16 @@
         <v>17</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>17</v>
       </c>
@@ -6737,7 +6720,7 @@
         <v>17</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6758,10 +6741,10 @@
         <v>17</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>17</v>
@@ -6772,10 +6755,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6786,7 +6769,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>17</v>
@@ -6795,18 +6778,20 @@
         <v>17</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>17</v>
@@ -6855,13 +6840,13 @@
         <v>17</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>17</v>
@@ -6876,10 +6861,10 @@
         <v>17</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>17</v>
@@ -6888,12 +6873,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6907,7 +6892,7 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>17</v>
@@ -6916,16 +6901,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6975,7 +6960,7 @@
         <v>17</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6996,10 +6981,10 @@
         <v>17</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>17</v>
@@ -7010,10 +6995,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7036,18 +7021,20 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>17</v>
       </c>
@@ -7095,7 +7082,7 @@
         <v>17</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7116,10 +7103,10 @@
         <v>17</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>17</v>
@@ -7130,10 +7117,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7144,7 +7131,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>17</v>
@@ -7153,23 +7140,19 @@
         <v>17</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>17</v>
       </c>
@@ -7217,19 +7200,19 @@
         <v>17</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>429</v>
+        <v>366</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>17</v>
@@ -7238,10 +7221,10 @@
         <v>17</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>434</v>
+        <v>17</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>17</v>
@@ -7252,21 +7235,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>17</v>
@@ -7278,15 +7261,17 @@
         <v>17</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>17</v>
@@ -7335,19 +7320,19 @@
         <v>17</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>17</v>
@@ -7359,7 +7344,7 @@
         <v>17</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>17</v>
@@ -7370,14 +7355,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>148</v>
+        <v>373</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7390,24 +7375,26 @@
         <v>17</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>17</v>
       </c>
@@ -7455,7 +7442,7 @@
         <v>17</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7479,7 +7466,7 @@
         <v>17</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>369</v>
+        <v>132</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>17</v>
@@ -7490,45 +7477,45 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>375</v>
+        <v>17</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>151</v>
+        <v>440</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>17</v>
@@ -7553,13 +7540,13 @@
         <v>17</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>17</v>
@@ -7577,34 +7564,34 @@
         <v>17</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>17</v>
+        <v>441</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>17</v>
@@ -7612,10 +7599,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7623,7 +7610,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -7638,19 +7625,19 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>195</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>277</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>17</v>
@@ -7675,13 +7662,13 @@
         <v>17</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>443</v>
+        <v>17</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>444</v>
+        <v>17</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>17</v>
@@ -7699,10 +7686,10 @@
         <v>17</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>89</v>
@@ -7717,27 +7704,27 @@
         <v>17</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>17</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7757,22 +7744,22 @@
         <v>17</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>447</v>
+        <v>195</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>448</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>279</v>
+        <v>449</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>17</v>
@@ -7797,13 +7784,13 @@
         <v>17</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>17</v>
@@ -7821,7 +7808,7 @@
         <v>17</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7830,7 +7817,7 @@
         <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
@@ -7839,19 +7826,19 @@
         <v>17</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>450</v>
+        <v>17</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>286</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7863,14 +7850,14 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>17</v>
+        <v>297</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>17</v>
@@ -7885,16 +7872,16 @@
         <v>195</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>452</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>453</v>
+        <v>299</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>454</v>
+        <v>300</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>17</v>
@@ -7919,13 +7906,13 @@
         <v>17</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>17</v>
@@ -7949,10 +7936,10 @@
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>101</v>
@@ -7961,31 +7948,31 @@
         <v>17</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>17</v>
+        <v>304</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>17</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8004,19 +7991,19 @@
         <v>17</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>299</v>
+        <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>300</v>
+        <v>454</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>301</v>
+        <v>357</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>17</v>
@@ -8041,13 +8028,13 @@
         <v>17</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>303</v>
+        <v>17</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>17</v>
@@ -8065,7 +8052,7 @@
         <v>17</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8083,145 +8070,23 @@
         <v>17</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP53" t="s" s="2">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP53">
+  <autoFilter ref="A1:AP52">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8231,7 +8096,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
